--- a/case.xlsx
+++ b/case.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="65">
   <si>
     <t>编号</t>
   </si>
@@ -77,6 +77,9 @@
     <t>不等待</t>
   </si>
   <si>
+    <t>assertion:B</t>
+  </si>
+  <si>
     <t>输入用户名</t>
   </si>
   <si>
@@ -96,6 +99,9 @@
   </si>
   <si>
     <t>admins</t>
+  </si>
+  <si>
+    <t>assertion:A</t>
   </si>
   <si>
     <t>输入密码</t>
@@ -212,9 +218,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -234,7 +240,61 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -248,41 +308,54 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -294,13 +367,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -308,66 +374,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -378,25 +384,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -408,157 +546,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -569,30 +575,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -609,33 +591,31 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -669,129 +649,155 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -800,22 +806,22 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1156,8 +1162,8 @@
   <sheetPr/>
   <dimension ref="A1:M5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="4"/>
@@ -1214,7 +1220,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:12">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -1242,37 +1248,43 @@
       <c r="J2" s="4">
         <v>0</v>
       </c>
+      <c r="L2" s="4" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:12">
       <c r="A3" s="4">
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I3" s="4" t="s">
         <v>19</v>
       </c>
       <c r="J3" s="4">
         <v>0</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -1280,25 +1292,25 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I4" s="4" t="s">
         <v>19</v>
@@ -1312,19 +1324,19 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>18</v>
@@ -1409,10 +1421,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>15</v>
@@ -1421,181 +1433,181 @@
         <v>16</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>18</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K3" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>18</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>18</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/case.xlsx
+++ b/case.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="39">
   <si>
     <t>编号</t>
   </si>
@@ -76,6 +76,9 @@
     <t>不等待</t>
   </si>
   <si>
+    <t>win_max:B</t>
+  </si>
+  <si>
     <t>assertion:B</t>
   </si>
   <si>
@@ -119,6 +122,9 @@
   </si>
   <si>
     <t>//a[@title='播放']</t>
+  </si>
+  <si>
+    <t>win_min:A</t>
   </si>
   <si>
     <t>assertion:A</t>
@@ -132,10 +138,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -153,6 +159,50 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -161,8 +211,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -170,30 +228,61 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -206,89 +295,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -305,181 +311,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -493,37 +499,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -539,6 +525,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -560,24 +555,20 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -590,153 +581,168 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1074,8 +1080,8 @@
   <sheetPr/>
   <dimension ref="A1:M6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="5"/>
@@ -1089,7 +1095,9 @@
     <col min="7" max="7" width="11.9" style="1" customWidth="1"/>
     <col min="8" max="8" width="12.1666666666667" style="1" customWidth="1"/>
     <col min="9" max="9" width="14.2666666666667" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="1"/>
+    <col min="10" max="12" width="9" style="1"/>
+    <col min="13" max="13" width="66.7916666666667" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
@@ -1161,8 +1169,11 @@
       <c r="J2" s="1">
         <v>0</v>
       </c>
+      <c r="K2" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="L2" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1170,22 +1181,22 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>23</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>19</v>
@@ -1194,7 +1205,7 @@
         <v>0</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1202,10 +1213,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>15</v>
@@ -1214,7 +1225,7 @@
         <v>16</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>18</v>
@@ -1226,7 +1237,7 @@
         <v>0</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1234,10 +1245,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>15</v>
@@ -1246,7 +1257,7 @@
         <v>16</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>18</v>
@@ -1264,10 +1275,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>15</v>
@@ -1276,7 +1287,7 @@
         <v>16</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>18</v>
@@ -1287,11 +1298,14 @@
       <c r="J6" s="1">
         <v>0</v>
       </c>
+      <c r="K6" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="L6" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
